--- a/基本設計書_アカウント削除.xlsx
+++ b/基本設計書_アカウント削除.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/text/07_Design/【実習】各種設計書（テンプレ）/基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/sekkei/sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3AF84D2-3C92-43CB-B25E-7422A71C19E6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="1340" windowWidth="16920" windowHeight="10450" tabRatio="774" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
@@ -722,6 +722,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -730,18 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4205,7 +4205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
@@ -5873,7 +5873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB9F1E83-BF3B-401E-848A-07D2D2BAD2BD}">
   <dimension ref="A1:AG57"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
@@ -5920,108 +5920,108 @@
       <c r="AG1" s="65"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="66" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="66" t="s">
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="66" t="s">
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="68"/>
+      <c r="AG2" s="64"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="68"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="64"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:33">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="10" spans="1:33">
       <c r="B10" t="s">
@@ -6117,111 +6117,116 @@
       </c>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
     </row>
     <row r="52" spans="2:22">
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
     </row>
     <row r="53" spans="2:22">
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
     </row>
     <row r="56" spans="2:22">
-      <c r="O56" s="64" t="s">
+      <c r="O56" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="P56" s="64"/>
-      <c r="Q56" s="64"/>
-      <c r="R56" s="64"/>
-      <c r="S56" s="64"/>
-      <c r="T56" s="64"/>
-      <c r="U56" s="64"/>
-      <c r="V56" s="64"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
     </row>
     <row r="57" spans="2:22">
-      <c r="O57" s="64"/>
-      <c r="P57" s="64"/>
-      <c r="Q57" s="64"/>
-      <c r="R57" s="64"/>
-      <c r="S57" s="64"/>
-      <c r="T57" s="64"/>
-      <c r="U57" s="64"/>
-      <c r="V57" s="64"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="B39:K40"/>
+    <mergeCell ref="B43:M44"/>
+    <mergeCell ref="B52:K53"/>
+    <mergeCell ref="O56:V57"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -6231,11 +6236,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="B6:J7"/>
-    <mergeCell ref="B39:K40"/>
-    <mergeCell ref="B43:M44"/>
-    <mergeCell ref="B52:K53"/>
-    <mergeCell ref="O56:V57"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
